--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_326__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_326__Reeval_LHS_Modell_1.3.xlsx
@@ -5882,7 +5882,7 @@
                   <c:v>63.97230529785156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61.12351989746094</c:v>
+                  <c:v>61.12351226806641</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>72.62278747558594</c:v>
@@ -5897,7 +5897,7 @@
                   <c:v>74.6929931640625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63.62461090087891</c:v>
+                  <c:v>63.62460327148438</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>64.40821838378906</c:v>
@@ -5963,7 +5963,7 @@
                   <c:v>62.36126708984375</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>60.05152893066406</c:v>
+                  <c:v>60.05152130126953</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>72.36420440673828</c:v>
@@ -5975,7 +5975,7 @@
                   <c:v>74.54375457763672</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>64.50943756103516</c:v>
+                  <c:v>64.50942993164062</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>65.25823974609375</c:v>
@@ -5993,7 +5993,7 @@
                   <c:v>76.67517852783203</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>60.80677032470703</c:v>
+                  <c:v>60.8067626953125</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>74.46923065185547</c:v>
@@ -6038,7 +6038,7 @@
                   <c:v>63.56201934814453</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>72.92420196533203</c:v>
+                  <c:v>72.92420959472656</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>64.02481079101562</c:v>
@@ -6113,7 +6113,7 @@
                   <c:v>71.7991943359375</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>67.40376281738281</c:v>
+                  <c:v>67.40377044677734</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>61.96078491210938</c:v>
@@ -6161,10 +6161,10 @@
                   <c:v>69.87870788574219</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>66.85836029052734</c:v>
+                  <c:v>66.85835266113281</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>58.39601135253906</c:v>
+                  <c:v>58.39600372314453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6955,7 +6955,7 @@
         <v>92.8593</v>
       </c>
       <c r="F5">
-        <v>61.12351989746094</v>
+        <v>61.12351226806641</v>
       </c>
       <c r="G5">
         <v>120</v>
@@ -7091,7 +7091,7 @@
         <v>57.1515</v>
       </c>
       <c r="F10">
-        <v>63.62461090087891</v>
+        <v>63.62460327148438</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7531,7 +7531,7 @@
         <v>70.952</v>
       </c>
       <c r="F32">
-        <v>60.05152893066406</v>
+        <v>60.05152130126953</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>68.4312</v>
       </c>
       <c r="F36">
-        <v>64.50943756103516</v>
+        <v>64.50942993164062</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>66.3913</v>
       </c>
       <c r="F42">
-        <v>60.80677032470703</v>
+        <v>60.8067626953125</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>86.1382</v>
       </c>
       <c r="F57">
-        <v>72.92420196533203</v>
+        <v>72.92420959472656</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>59.0528</v>
       </c>
       <c r="F82">
-        <v>67.40376281738281</v>
+        <v>67.40377044677734</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>69.08</v>
       </c>
       <c r="F98">
-        <v>66.85836029052734</v>
+        <v>66.85835266113281</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>89.25320000000001</v>
       </c>
       <c r="F99">
-        <v>58.39601135253906</v>
+        <v>58.39600372314453</v>
       </c>
     </row>
     <row r="100" spans="1:6">
